--- a/data/pca/factorExposure/factorExposure_2015-07-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02390399835246051</v>
+        <v>0.01466063905776894</v>
       </c>
       <c r="C2">
-        <v>0.02686357038205949</v>
+        <v>0.04812031048556753</v>
       </c>
       <c r="D2">
-        <v>-0.1335300936996613</v>
+        <v>0.1398606767174627</v>
       </c>
       <c r="E2">
-        <v>0.01699080714519366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.003900638173336225</v>
+      </c>
+      <c r="F2">
+        <v>-0.002038792975468422</v>
+      </c>
+      <c r="G2">
+        <v>-0.111536311010399</v>
+      </c>
+      <c r="H2">
+        <v>-0.05064179992704177</v>
+      </c>
+      <c r="I2">
+        <v>-0.05270894528542484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.009388857068638705</v>
+        <v>-0.01271461159163928</v>
       </c>
       <c r="C3">
-        <v>0.03598638493071569</v>
+        <v>0.0215126501636651</v>
       </c>
       <c r="D3">
-        <v>-0.008784648939396178</v>
+        <v>0.0103542416136563</v>
       </c>
       <c r="E3">
-        <v>0.03790399066296686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.03205555544260934</v>
+      </c>
+      <c r="F3">
+        <v>-0.0001438297530236237</v>
+      </c>
+      <c r="G3">
+        <v>-0.07301886827275093</v>
+      </c>
+      <c r="H3">
+        <v>-0.00468218860765447</v>
+      </c>
+      <c r="I3">
+        <v>0.08621727472930382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03750374340584937</v>
+        <v>0.02291772274090226</v>
       </c>
       <c r="C4">
-        <v>0.06952082233568388</v>
+        <v>0.09254449205442868</v>
       </c>
       <c r="D4">
-        <v>-0.139365545706591</v>
+        <v>0.1509042098843025</v>
       </c>
       <c r="E4">
-        <v>0.07415851119475039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01881595017033151</v>
+      </c>
+      <c r="F4">
+        <v>-0.08578670858181117</v>
+      </c>
+      <c r="G4">
+        <v>-4.234307508787411e-05</v>
+      </c>
+      <c r="H4">
+        <v>-0.04580244584771005</v>
+      </c>
+      <c r="I4">
+        <v>-0.02085263439915273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02802826431436263</v>
+        <v>0.02716168657432356</v>
       </c>
       <c r="C6">
-        <v>0.01427799330039922</v>
+        <v>0.03149710975109831</v>
       </c>
       <c r="D6">
-        <v>-0.1445773568932805</v>
+        <v>0.1254446757879107</v>
       </c>
       <c r="E6">
-        <v>0.03611649252311637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03458058670620255</v>
+      </c>
+      <c r="F6">
+        <v>-0.04989724088263624</v>
+      </c>
+      <c r="G6">
+        <v>-0.04480912811642628</v>
+      </c>
+      <c r="H6">
+        <v>-0.02307445982467519</v>
+      </c>
+      <c r="I6">
+        <v>0.02532738803341794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.009375889222331089</v>
+        <v>0.006676198924588934</v>
       </c>
       <c r="C7">
-        <v>0.02413443521382102</v>
+        <v>0.03539027797588012</v>
       </c>
       <c r="D7">
-        <v>-0.116090818518067</v>
+        <v>0.1016913831140472</v>
       </c>
       <c r="E7">
-        <v>-0.00448753014226356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.04259822473095679</v>
+      </c>
+      <c r="F7">
+        <v>-0.009483252348060191</v>
+      </c>
+      <c r="G7">
+        <v>-0.03240332963779499</v>
+      </c>
+      <c r="H7">
+        <v>-0.05962729735372375</v>
+      </c>
+      <c r="I7">
+        <v>0.045164302656707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.00354386190758837</v>
+        <v>-0.005519558659655939</v>
       </c>
       <c r="C8">
-        <v>0.03141479266093004</v>
+        <v>0.03844500163302307</v>
       </c>
       <c r="D8">
-        <v>-0.08212082482324945</v>
+        <v>0.08161734566816721</v>
       </c>
       <c r="E8">
-        <v>0.03262668316904885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0106407148015493</v>
+      </c>
+      <c r="F8">
+        <v>-0.04568365721287414</v>
+      </c>
+      <c r="G8">
+        <v>-0.09803684539452469</v>
+      </c>
+      <c r="H8">
+        <v>0.009084331785859217</v>
+      </c>
+      <c r="I8">
+        <v>0.04276863562277915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03432446653862768</v>
+        <v>0.01921399418412472</v>
       </c>
       <c r="C9">
-        <v>0.06348298274214179</v>
+        <v>0.08157060700876875</v>
       </c>
       <c r="D9">
-        <v>-0.1295796449086379</v>
+        <v>0.1239215917748349</v>
       </c>
       <c r="E9">
-        <v>0.06059857057510477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01026540865660773</v>
+      </c>
+      <c r="F9">
+        <v>-0.05078722078193161</v>
+      </c>
+      <c r="G9">
+        <v>0.003281770636280136</v>
+      </c>
+      <c r="H9">
+        <v>-0.04890510622906193</v>
+      </c>
+      <c r="I9">
+        <v>-0.0009711598554882885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1560976245778072</v>
+        <v>0.2182510505370981</v>
       </c>
       <c r="C10">
-        <v>-0.1710435089348707</v>
+        <v>-0.1161952503441188</v>
       </c>
       <c r="D10">
-        <v>-0.005813264168378306</v>
+        <v>0.002120265787926119</v>
       </c>
       <c r="E10">
-        <v>0.04464480980496897</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02505288802091766</v>
+      </c>
+      <c r="F10">
+        <v>-0.04562265578846769</v>
+      </c>
+      <c r="G10">
+        <v>0.007553052303016509</v>
+      </c>
+      <c r="H10">
+        <v>0.06713165681631508</v>
+      </c>
+      <c r="I10">
+        <v>0.1025375555484371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0235718978169251</v>
+        <v>0.01277224273921173</v>
       </c>
       <c r="C11">
-        <v>0.04254830985680252</v>
+        <v>0.05344942997543292</v>
       </c>
       <c r="D11">
-        <v>-0.05526391766817871</v>
+        <v>0.0484905693661719</v>
       </c>
       <c r="E11">
-        <v>-0.01345282479258549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01829716052182295</v>
+      </c>
+      <c r="F11">
+        <v>0.01401053253209107</v>
+      </c>
+      <c r="G11">
+        <v>-0.009527401222927875</v>
+      </c>
+      <c r="H11">
+        <v>-0.04403703042808804</v>
+      </c>
+      <c r="I11">
+        <v>-0.01358009574013131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02505110025449681</v>
+        <v>0.01307502986858782</v>
       </c>
       <c r="C12">
-        <v>0.04110485730361282</v>
+        <v>0.05016419262200981</v>
       </c>
       <c r="D12">
-        <v>-0.06772016146146558</v>
+        <v>0.05095536084730543</v>
       </c>
       <c r="E12">
-        <v>-0.0001451617297776771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01547496489120313</v>
+      </c>
+      <c r="F12">
+        <v>0.015753669549118</v>
+      </c>
+      <c r="G12">
+        <v>-0.004604015195193652</v>
+      </c>
+      <c r="H12">
+        <v>-0.07283646381777176</v>
+      </c>
+      <c r="I12">
+        <v>-3.467791152532043e-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005095081535551728</v>
+        <v>0.005801649710328151</v>
       </c>
       <c r="C13">
-        <v>0.02751936386164718</v>
+        <v>0.044376729245386</v>
       </c>
       <c r="D13">
-        <v>-0.154175005874753</v>
+        <v>0.1564696516947187</v>
       </c>
       <c r="E13">
-        <v>0.03771945131157557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03845029738812256</v>
+      </c>
+      <c r="F13">
+        <v>-0.04024573941998592</v>
+      </c>
+      <c r="G13">
+        <v>-0.05555329173200163</v>
+      </c>
+      <c r="H13">
+        <v>-0.05773697532715079</v>
+      </c>
+      <c r="I13">
+        <v>0.0765005423109987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.0009924235332215651</v>
+        <v>0.0006530379784948858</v>
       </c>
       <c r="C14">
-        <v>0.02202715698257001</v>
+        <v>0.02942450562945994</v>
       </c>
       <c r="D14">
-        <v>-0.1089857153398093</v>
+        <v>0.1040844536894339</v>
       </c>
       <c r="E14">
-        <v>0.02597942712862169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0180049856727662</v>
+      </c>
+      <c r="F14">
+        <v>-0.02186510201220217</v>
+      </c>
+      <c r="G14">
+        <v>-0.06077088684058838</v>
+      </c>
+      <c r="H14">
+        <v>-0.1033327591522857</v>
+      </c>
+      <c r="I14">
+        <v>0.02525647928907798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002455277056242121</v>
+        <v>-0.001692812679942141</v>
       </c>
       <c r="C15">
-        <v>0.01143743835442489</v>
+        <v>0.01828353961482361</v>
       </c>
       <c r="D15">
-        <v>-0.02211191461018676</v>
+        <v>0.05069190598618274</v>
       </c>
       <c r="E15">
-        <v>-0.00859296818099492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.004046811021696853</v>
+      </c>
+      <c r="F15">
+        <v>-0.002652562717164525</v>
+      </c>
+      <c r="G15">
+        <v>-0.02398545368427097</v>
+      </c>
+      <c r="H15">
+        <v>-0.0123962527824884</v>
+      </c>
+      <c r="I15">
+        <v>-0.02036569318255901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02173034799488033</v>
+        <v>0.01292445307709719</v>
       </c>
       <c r="C16">
-        <v>0.03914180136335921</v>
+        <v>0.04804609320715249</v>
       </c>
       <c r="D16">
-        <v>-0.06319380516810055</v>
+        <v>0.04902667519134647</v>
       </c>
       <c r="E16">
-        <v>-0.005394904135917315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.01892022387899175</v>
+      </c>
+      <c r="F16">
+        <v>0.007918580065808986</v>
+      </c>
+      <c r="G16">
+        <v>-0.001936268760590697</v>
+      </c>
+      <c r="H16">
+        <v>-0.05132267961605598</v>
+      </c>
+      <c r="I16">
+        <v>-0.01002901328683591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.006344825797664267</v>
+        <v>0.001265650846227641</v>
       </c>
       <c r="C19">
-        <v>0.02226826900129224</v>
+        <v>0.02051817029180343</v>
       </c>
       <c r="D19">
-        <v>-0.1348953702298415</v>
+        <v>0.0890448509962994</v>
       </c>
       <c r="E19">
-        <v>0.07170997919854245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.02250081804390846</v>
+      </c>
+      <c r="F19">
+        <v>-0.008338292434740246</v>
+      </c>
+      <c r="G19">
+        <v>-0.03250484413621656</v>
+      </c>
+      <c r="H19">
+        <v>-0.06419238992033353</v>
+      </c>
+      <c r="I19">
+        <v>0.0364010891645417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.006735382750535589</v>
+        <v>0.004898569782659302</v>
       </c>
       <c r="C20">
-        <v>0.03110996944938725</v>
+        <v>0.04125732060091858</v>
       </c>
       <c r="D20">
-        <v>-0.09144642917811284</v>
+        <v>0.09928537915356747</v>
       </c>
       <c r="E20">
-        <v>0.04403707354273751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.002018397150839664</v>
+      </c>
+      <c r="F20">
+        <v>-0.02895629886162594</v>
+      </c>
+      <c r="G20">
+        <v>-0.03652929172158155</v>
+      </c>
+      <c r="H20">
+        <v>-0.05826130527242593</v>
+      </c>
+      <c r="I20">
+        <v>0.0182688006928513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007376123164292181</v>
+        <v>0.001641465964569885</v>
       </c>
       <c r="C21">
-        <v>0.03467189168071965</v>
+        <v>0.04309780680952389</v>
       </c>
       <c r="D21">
-        <v>-0.1706856750528171</v>
+        <v>0.1412484635509985</v>
       </c>
       <c r="E21">
-        <v>0.08077444347579481</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.01702093940795536</v>
+      </c>
+      <c r="F21">
+        <v>-0.06559156680270978</v>
+      </c>
+      <c r="G21">
+        <v>-0.06755112855974946</v>
+      </c>
+      <c r="H21">
+        <v>-0.1482713939869726</v>
+      </c>
+      <c r="I21">
+        <v>0.1022199436302548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001381978144471928</v>
+        <v>-0.005997424409936024</v>
       </c>
       <c r="C22">
-        <v>0.05730606730957214</v>
+        <v>0.07070973878921917</v>
       </c>
       <c r="D22">
-        <v>-0.196521627290379</v>
+        <v>0.2428338564027863</v>
       </c>
       <c r="E22">
-        <v>-0.04850821733841542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04061172020628845</v>
+      </c>
+      <c r="F22">
+        <v>-0.03057340161700545</v>
+      </c>
+      <c r="G22">
+        <v>-0.1842615025166472</v>
+      </c>
+      <c r="H22">
+        <v>0.4573810416368794</v>
+      </c>
+      <c r="I22">
+        <v>-0.2295674979774749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.001173209954179588</v>
+        <v>-0.005541247797701587</v>
       </c>
       <c r="C23">
-        <v>0.05777585530790838</v>
+        <v>0.07158667458337403</v>
       </c>
       <c r="D23">
-        <v>-0.1960871223446374</v>
+        <v>0.2434978387897853</v>
       </c>
       <c r="E23">
-        <v>-0.04829842956522785</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.03764228089765081</v>
+      </c>
+      <c r="F23">
+        <v>-0.0297104150006591</v>
+      </c>
+      <c r="G23">
+        <v>-0.1827862000644151</v>
+      </c>
+      <c r="H23">
+        <v>0.4573743982383277</v>
+      </c>
+      <c r="I23">
+        <v>-0.2307119652767569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02892257880431526</v>
+        <v>0.01394355449919974</v>
       </c>
       <c r="C24">
-        <v>0.05718692923321558</v>
+        <v>0.06511337600240875</v>
       </c>
       <c r="D24">
-        <v>-0.07420995917440876</v>
+        <v>0.05755361757706454</v>
       </c>
       <c r="E24">
-        <v>0.0008983466716110387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02035106269777201</v>
+      </c>
+      <c r="F24">
+        <v>0.006843365223314774</v>
+      </c>
+      <c r="G24">
+        <v>-0.01465883871399768</v>
+      </c>
+      <c r="H24">
+        <v>-0.07544718723209914</v>
+      </c>
+      <c r="I24">
+        <v>-0.01274087675540823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03306053667385896</v>
+        <v>0.01818649173377449</v>
       </c>
       <c r="C25">
-        <v>0.04871670323120214</v>
+        <v>0.06110366513439774</v>
       </c>
       <c r="D25">
-        <v>-0.06822399983888071</v>
+        <v>0.05595471844256346</v>
       </c>
       <c r="E25">
-        <v>0.007569218724869545</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.008275680351227773</v>
+      </c>
+      <c r="F25">
+        <v>0.009553419699556597</v>
+      </c>
+      <c r="G25">
+        <v>-0.003315741783956761</v>
+      </c>
+      <c r="H25">
+        <v>-0.046315477165304</v>
+      </c>
+      <c r="I25">
+        <v>-0.004545203814712821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.005474373667952895</v>
+        <v>0.008146965049542513</v>
       </c>
       <c r="C26">
-        <v>0.01556753548569432</v>
+        <v>0.02267681455500637</v>
       </c>
       <c r="D26">
-        <v>-0.08153401981215877</v>
+        <v>0.07429509120034625</v>
       </c>
       <c r="E26">
-        <v>0.0267725128400454</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.01780001554724748</v>
+      </c>
+      <c r="F26">
+        <v>-0.02722092732474751</v>
+      </c>
+      <c r="G26">
+        <v>-0.03115125517783448</v>
+      </c>
+      <c r="H26">
+        <v>-0.07424708668429114</v>
+      </c>
+      <c r="I26">
+        <v>0.05493319425135379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2400711130991269</v>
+        <v>0.3140926319215043</v>
       </c>
       <c r="C28">
-        <v>-0.2180660301519581</v>
+        <v>-0.1330190788965732</v>
       </c>
       <c r="D28">
-        <v>-0.009179908913193787</v>
+        <v>-0.006216853579716068</v>
       </c>
       <c r="E28">
-        <v>0.06495292118889252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04566945080211005</v>
+      </c>
+      <c r="F28">
+        <v>-0.03392793941529629</v>
+      </c>
+      <c r="G28">
+        <v>0.02335837427906436</v>
+      </c>
+      <c r="H28">
+        <v>0.03727465692010678</v>
+      </c>
+      <c r="I28">
+        <v>0.06308708210058064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001363887902898844</v>
+        <v>-2.27968277310043e-05</v>
       </c>
       <c r="C29">
-        <v>0.02044780117178466</v>
+        <v>0.02932243559933714</v>
       </c>
       <c r="D29">
-        <v>-0.1022747825159321</v>
+        <v>0.1021518792689378</v>
       </c>
       <c r="E29">
-        <v>0.02017647366303436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.03224987124023289</v>
+      </c>
+      <c r="F29">
+        <v>-0.03087033424786209</v>
+      </c>
+      <c r="G29">
+        <v>-0.04776405496481758</v>
+      </c>
+      <c r="H29">
+        <v>-0.101022751005321</v>
+      </c>
+      <c r="I29">
+        <v>0.03390856759086155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02466466794056073</v>
+        <v>0.01775470863474227</v>
       </c>
       <c r="C30">
-        <v>0.06019952368783842</v>
+        <v>0.08099330004380463</v>
       </c>
       <c r="D30">
-        <v>-0.1654190324377534</v>
+        <v>0.1649871891335838</v>
       </c>
       <c r="E30">
-        <v>0.01513848045201426</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03729122064352022</v>
+      </c>
+      <c r="F30">
+        <v>-0.03395600328516139</v>
+      </c>
+      <c r="G30">
+        <v>-0.03868853380799119</v>
+      </c>
+      <c r="H30">
+        <v>-0.03747788299128645</v>
+      </c>
+      <c r="I30">
+        <v>-0.06314464273985573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04289094004343031</v>
+        <v>0.01555591310075476</v>
       </c>
       <c r="C31">
-        <v>0.08240860194754414</v>
+        <v>0.08917515516626671</v>
       </c>
       <c r="D31">
-        <v>-0.08165049058678363</v>
+        <v>0.04724383737239109</v>
       </c>
       <c r="E31">
-        <v>0.02702346130803586</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.007974262715998002</v>
+      </c>
+      <c r="F31">
+        <v>-0.01924223030141407</v>
+      </c>
+      <c r="G31">
+        <v>-0.02281731887308829</v>
+      </c>
+      <c r="H31">
+        <v>-0.04189564638655238</v>
+      </c>
+      <c r="I31">
+        <v>0.06910474023676522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02338047045773771</v>
+        <v>0.01770111881659405</v>
       </c>
       <c r="C32">
-        <v>0.03031566602037143</v>
+        <v>0.03855087300434731</v>
       </c>
       <c r="D32">
-        <v>-0.1078100024743506</v>
+        <v>0.1136569445620689</v>
       </c>
       <c r="E32">
-        <v>0.05733570347886102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0003084522529325025</v>
+      </c>
+      <c r="F32">
+        <v>-0.04615101748506463</v>
+      </c>
+      <c r="G32">
+        <v>-0.02662222023078129</v>
+      </c>
+      <c r="H32">
+        <v>-0.02169179135755239</v>
+      </c>
+      <c r="I32">
+        <v>0.07624087262126286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01788611721701725</v>
+        <v>0.0113385361637776</v>
       </c>
       <c r="C33">
-        <v>0.04089169328823805</v>
+        <v>0.05554114807517629</v>
       </c>
       <c r="D33">
-        <v>-0.1532141510925764</v>
+        <v>0.1336081510149505</v>
       </c>
       <c r="E33">
-        <v>0.0485962413693332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01116366457581727</v>
+      </c>
+      <c r="F33">
+        <v>-0.02367963137766255</v>
+      </c>
+      <c r="G33">
+        <v>-0.02857670873986337</v>
+      </c>
+      <c r="H33">
+        <v>-0.05474479436311314</v>
+      </c>
+      <c r="I33">
+        <v>0.01567038301540098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02860329894624861</v>
+        <v>0.01255301658211038</v>
       </c>
       <c r="C34">
-        <v>0.05789689066547792</v>
+        <v>0.06360945283664092</v>
       </c>
       <c r="D34">
-        <v>-0.05453358570040683</v>
+        <v>0.03569416165315172</v>
       </c>
       <c r="E34">
-        <v>-0.04020353475619576</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02818709300807288</v>
+      </c>
+      <c r="F34">
+        <v>0.03791037681847519</v>
+      </c>
+      <c r="G34">
+        <v>-0.009859549498554068</v>
+      </c>
+      <c r="H34">
+        <v>-0.05711869780818973</v>
+      </c>
+      <c r="I34">
+        <v>0.004374849283286502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001076315561513668</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.004515080739489398</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01483445882772626</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.002025877278228038</v>
+      </c>
+      <c r="F35">
+        <v>0.0005030259637363655</v>
+      </c>
+      <c r="G35">
+        <v>-0.0003239684743531056</v>
+      </c>
+      <c r="H35">
+        <v>-0.007997283880620383</v>
+      </c>
+      <c r="I35">
+        <v>-0.002431060166130164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01147152447994009</v>
+        <v>0.01358086097145119</v>
       </c>
       <c r="C36">
-        <v>0.003951709589945138</v>
+        <v>0.01783710935755109</v>
       </c>
       <c r="D36">
-        <v>-0.09960689787170149</v>
+        <v>0.08692881293392722</v>
       </c>
       <c r="E36">
-        <v>0.04906900078087778</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004522767718436872</v>
+      </c>
+      <c r="F36">
+        <v>-0.03464609375602494</v>
+      </c>
+      <c r="G36">
+        <v>-0.02181482330296217</v>
+      </c>
+      <c r="H36">
+        <v>-0.06060886736875253</v>
+      </c>
+      <c r="I36">
+        <v>0.02876107913377669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.008799536710443204</v>
+        <v>0.01712725040199752</v>
       </c>
       <c r="C38">
-        <v>0.01233419803520513</v>
+        <v>0.01751390153137676</v>
       </c>
       <c r="D38">
-        <v>-0.09237590848198918</v>
+        <v>0.08864898575050272</v>
       </c>
       <c r="E38">
-        <v>0.0349560729046088</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01652570330606743</v>
+      </c>
+      <c r="F38">
+        <v>0.01134469135620156</v>
+      </c>
+      <c r="G38">
+        <v>-0.03756699679732559</v>
+      </c>
+      <c r="H38">
+        <v>-0.0428449704554712</v>
+      </c>
+      <c r="I38">
+        <v>0.02937662423325484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02238543903519458</v>
+        <v>0.009568983616086038</v>
       </c>
       <c r="C39">
-        <v>0.05768551834586846</v>
+        <v>0.07568053923117235</v>
       </c>
       <c r="D39">
-        <v>-0.1174925287522942</v>
+        <v>0.1097846488563776</v>
       </c>
       <c r="E39">
-        <v>-0.01716974273125679</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04217395388077665</v>
+      </c>
+      <c r="F39">
+        <v>0.008998961235818238</v>
+      </c>
+      <c r="G39">
+        <v>-0.01744392364519679</v>
+      </c>
+      <c r="H39">
+        <v>-0.1014366437985739</v>
+      </c>
+      <c r="I39">
+        <v>-0.04110426194746257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01530465379038545</v>
+        <v>0.007619909169385184</v>
       </c>
       <c r="C40">
-        <v>0.0400043414142137</v>
+        <v>0.04210557397983605</v>
       </c>
       <c r="D40">
-        <v>-0.1160551948369354</v>
+        <v>0.09886211723170515</v>
       </c>
       <c r="E40">
-        <v>0.042213917148915</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01732618206501915</v>
+      </c>
+      <c r="F40">
+        <v>-0.01281810501471439</v>
+      </c>
+      <c r="G40">
+        <v>-0.2464961033633546</v>
+      </c>
+      <c r="H40">
+        <v>-0.02113173026208761</v>
+      </c>
+      <c r="I40">
+        <v>0.1836674042941877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.018144006801878</v>
+        <v>0.01675544293335844</v>
       </c>
       <c r="C41">
-        <v>0.003249333447415232</v>
+        <v>0.01527122773383212</v>
       </c>
       <c r="D41">
-        <v>-0.07442533499137292</v>
+        <v>0.05276594890308356</v>
       </c>
       <c r="E41">
-        <v>0.0450017207484288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0169250345080363</v>
+      </c>
+      <c r="F41">
+        <v>-0.01742517507864829</v>
+      </c>
+      <c r="G41">
+        <v>-0.02515763817097369</v>
+      </c>
+      <c r="H41">
+        <v>-0.02913154025213656</v>
+      </c>
+      <c r="I41">
+        <v>0.04231310646572606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01108698425394122</v>
+        <v>0.009456475237251082</v>
       </c>
       <c r="C43">
-        <v>0.008162267308799051</v>
+        <v>0.01693556278935961</v>
       </c>
       <c r="D43">
-        <v>-0.09088363572031896</v>
+        <v>0.06710583522442767</v>
       </c>
       <c r="E43">
-        <v>0.04230616309719494</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.005485116200675853</v>
+      </c>
+      <c r="F43">
+        <v>-0.01472736121667409</v>
+      </c>
+      <c r="G43">
+        <v>-0.03139510210950965</v>
+      </c>
+      <c r="H43">
+        <v>-0.05987258848750843</v>
+      </c>
+      <c r="I43">
+        <v>0.04339394152184513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.008246934584353565</v>
+        <v>0.008330336905681433</v>
       </c>
       <c r="C44">
-        <v>0.03935922423321481</v>
+        <v>0.04716592219990515</v>
       </c>
       <c r="D44">
-        <v>-0.09827203643802734</v>
+        <v>0.1110927256628145</v>
       </c>
       <c r="E44">
-        <v>0.04782898247854217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.002775653190890772</v>
+      </c>
+      <c r="F44">
+        <v>-0.01860413099832201</v>
+      </c>
+      <c r="G44">
+        <v>-0.0333120152032064</v>
+      </c>
+      <c r="H44">
+        <v>-0.04467109300844036</v>
+      </c>
+      <c r="I44">
+        <v>-0.03389060369279013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01029514160537725</v>
+        <v>0.001130184679623452</v>
       </c>
       <c r="C46">
-        <v>0.02724521264717627</v>
+        <v>0.03847005927771483</v>
       </c>
       <c r="D46">
-        <v>-0.1048165621415991</v>
+        <v>0.08827805410178366</v>
       </c>
       <c r="E46">
-        <v>0.02901502896448804</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.01814971678078874</v>
+      </c>
+      <c r="F46">
+        <v>-0.0238655589569478</v>
+      </c>
+      <c r="G46">
+        <v>-0.04503866338886137</v>
+      </c>
+      <c r="H46">
+        <v>-0.1123681337718501</v>
+      </c>
+      <c r="I46">
+        <v>0.03313626428390406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08059419545633101</v>
+        <v>0.04051669957253741</v>
       </c>
       <c r="C47">
-        <v>0.1046016401614361</v>
+        <v>0.120313555639343</v>
       </c>
       <c r="D47">
-        <v>-0.06241987504286239</v>
+        <v>0.02697567903125218</v>
       </c>
       <c r="E47">
-        <v>0.03854460350931344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.00940370456603332</v>
+      </c>
+      <c r="F47">
+        <v>0.003279251496005417</v>
+      </c>
+      <c r="G47">
+        <v>0.0252230600947971</v>
+      </c>
+      <c r="H47">
+        <v>-0.03864985788001321</v>
+      </c>
+      <c r="I47">
+        <v>0.127699520456333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.006509477578000443</v>
+        <v>0.008449581839272158</v>
       </c>
       <c r="C48">
-        <v>0.01697364114553183</v>
+        <v>0.02626364362788779</v>
       </c>
       <c r="D48">
-        <v>-0.09530996095658729</v>
+        <v>0.08836829408451546</v>
       </c>
       <c r="E48">
-        <v>0.07016141808151591</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.01129096636980653</v>
+      </c>
+      <c r="F48">
+        <v>-0.03916478534870468</v>
+      </c>
+      <c r="G48">
+        <v>-0.03647997117197073</v>
+      </c>
+      <c r="H48">
+        <v>-0.08150978130155713</v>
+      </c>
+      <c r="I48">
+        <v>0.02932024455227832</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04215656736756517</v>
+        <v>0.0185908226587508</v>
       </c>
       <c r="C50">
-        <v>0.06170501130372317</v>
+        <v>0.07369834386272708</v>
       </c>
       <c r="D50">
-        <v>-0.07816929184915154</v>
+        <v>0.052443651032928</v>
       </c>
       <c r="E50">
-        <v>0.02257707695268615</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0009938424404272513</v>
+      </c>
+      <c r="F50">
+        <v>-0.008375505104111104</v>
+      </c>
+      <c r="G50">
+        <v>-0.03501100689783671</v>
+      </c>
+      <c r="H50">
+        <v>-0.02086973950887267</v>
+      </c>
+      <c r="I50">
+        <v>0.1032381470357477</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.005079629906768587</v>
+        <v>0.005079996948077531</v>
       </c>
       <c r="C51">
-        <v>0.007971776092013353</v>
+        <v>0.01808407784348134</v>
       </c>
       <c r="D51">
-        <v>-0.06485415081360633</v>
+        <v>0.07068949470908631</v>
       </c>
       <c r="E51">
-        <v>-0.004095658654499196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.02926196743690398</v>
+      </c>
+      <c r="F51">
+        <v>-0.03009833473089902</v>
+      </c>
+      <c r="G51">
+        <v>-0.04573719192184722</v>
+      </c>
+      <c r="H51">
+        <v>-0.03830761414872828</v>
+      </c>
+      <c r="I51">
+        <v>0.008759550515079357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1066701259002678</v>
+        <v>0.06745719917841474</v>
       </c>
       <c r="C53">
-        <v>0.1242485054846708</v>
+        <v>0.1521816989342162</v>
       </c>
       <c r="D53">
-        <v>-0.01672014028412881</v>
+        <v>-0.007929456950900724</v>
       </c>
       <c r="E53">
-        <v>0.07323642984907916</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04084544899926578</v>
+      </c>
+      <c r="F53">
+        <v>-0.05822575826818028</v>
+      </c>
+      <c r="G53">
+        <v>-0.02849370715036387</v>
+      </c>
+      <c r="H53">
+        <v>-0.004136145771224413</v>
+      </c>
+      <c r="I53">
+        <v>0.09862889537344993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01878024486559488</v>
+        <v>0.01319867856815112</v>
       </c>
       <c r="C54">
-        <v>0.02141481350827357</v>
+        <v>0.03722359818272798</v>
       </c>
       <c r="D54">
-        <v>-0.1130502115988305</v>
+        <v>0.08980257710856733</v>
       </c>
       <c r="E54">
-        <v>0.01770174168970922</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0100354311704988</v>
+      </c>
+      <c r="F54">
+        <v>0.002590068266203364</v>
+      </c>
+      <c r="G54">
+        <v>-0.04959888081597138</v>
+      </c>
+      <c r="H54">
+        <v>-0.0672612007849912</v>
+      </c>
+      <c r="I54">
+        <v>0.05718347733396455</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09425545983278227</v>
+        <v>0.05279232876411434</v>
       </c>
       <c r="C55">
-        <v>0.1029471134571647</v>
+        <v>0.1263693447446203</v>
       </c>
       <c r="D55">
-        <v>-0.005380159779978399</v>
+        <v>-0.01867040134897939</v>
       </c>
       <c r="E55">
-        <v>0.02781354077395034</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.003292196571637038</v>
+      </c>
+      <c r="F55">
+        <v>-0.02516277294251148</v>
+      </c>
+      <c r="G55">
+        <v>-0.03974981321706502</v>
+      </c>
+      <c r="H55">
+        <v>0.007611645123888478</v>
+      </c>
+      <c r="I55">
+        <v>0.08040664999348408</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1341238924660941</v>
+        <v>0.07723249683600769</v>
       </c>
       <c r="C56">
-        <v>0.1313204058881584</v>
+        <v>0.1767058903016152</v>
       </c>
       <c r="D56">
-        <v>0.0008830752493713606</v>
+        <v>-0.02232128658093815</v>
       </c>
       <c r="E56">
-        <v>0.03431238721783173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03334277353168764</v>
+      </c>
+      <c r="F56">
+        <v>-0.01861824276503872</v>
+      </c>
+      <c r="G56">
+        <v>-0.04644345266206287</v>
+      </c>
+      <c r="H56">
+        <v>0.0290271524575895</v>
+      </c>
+      <c r="I56">
+        <v>0.08202758332816566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01598067331626996</v>
+        <v>-0.002253905603611711</v>
       </c>
       <c r="C58">
-        <v>0.01961539679823073</v>
+        <v>0.0444962744758715</v>
       </c>
       <c r="D58">
-        <v>-0.2064451802661232</v>
+        <v>0.2796989507936958</v>
       </c>
       <c r="E58">
-        <v>0.07457996981650267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.0375151511822351</v>
+      </c>
+      <c r="F58">
+        <v>-0.08977880100104238</v>
+      </c>
+      <c r="G58">
+        <v>-0.0781303606071193</v>
+      </c>
+      <c r="H58">
+        <v>0.1514777814599282</v>
+      </c>
+      <c r="I58">
+        <v>-0.08236721741334094</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1702494701657604</v>
+        <v>0.2362590829866887</v>
       </c>
       <c r="C59">
-        <v>-0.1539781330191861</v>
+        <v>-0.09084736489033632</v>
       </c>
       <c r="D59">
-        <v>-0.04246879138827789</v>
+        <v>0.05923307197678299</v>
       </c>
       <c r="E59">
-        <v>0.04815906115783223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03674746510817965</v>
+      </c>
+      <c r="F59">
+        <v>-0.01254575719717105</v>
+      </c>
+      <c r="G59">
+        <v>0.002227334738201621</v>
+      </c>
+      <c r="H59">
+        <v>0.01772003791876042</v>
+      </c>
+      <c r="I59">
+        <v>0.01295456591052844</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2019610668014221</v>
+        <v>0.1594388626596334</v>
       </c>
       <c r="C60">
-        <v>0.1012999108601482</v>
+        <v>0.1669889686160333</v>
       </c>
       <c r="D60">
-        <v>-0.1655501708618152</v>
+        <v>0.08456724891776003</v>
       </c>
       <c r="E60">
-        <v>-0.2591189993324526</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2498791734460965</v>
+      </c>
+      <c r="F60">
+        <v>0.1535826002020532</v>
+      </c>
+      <c r="G60">
+        <v>0.2518880253883143</v>
+      </c>
+      <c r="H60">
+        <v>0.1162201661204754</v>
+      </c>
+      <c r="I60">
+        <v>-0.02746540791358954</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0337788979069871</v>
+        <v>0.01837191112004386</v>
       </c>
       <c r="C61">
-        <v>0.05564701249124845</v>
+        <v>0.07164817154400159</v>
       </c>
       <c r="D61">
-        <v>-0.1123776557141192</v>
+        <v>0.08829327046897861</v>
       </c>
       <c r="E61">
-        <v>0.0002162302627118797</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03452658811211391</v>
+      </c>
+      <c r="F61">
+        <v>0.01802318763454619</v>
+      </c>
+      <c r="G61">
+        <v>-0.0006651468548150058</v>
+      </c>
+      <c r="H61">
+        <v>-0.0951667084069919</v>
+      </c>
+      <c r="I61">
+        <v>0.01031968037988864</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01107947616816752</v>
+        <v>0.005643377384132608</v>
       </c>
       <c r="C63">
-        <v>0.024243947878023</v>
+        <v>0.03506833328365667</v>
       </c>
       <c r="D63">
-        <v>-0.0956689642059453</v>
+        <v>0.07439025796534993</v>
       </c>
       <c r="E63">
-        <v>0.01512540690176546</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.01995975578573784</v>
+      </c>
+      <c r="F63">
+        <v>-0.01938958697484654</v>
+      </c>
+      <c r="G63">
+        <v>-0.02944065555303117</v>
+      </c>
+      <c r="H63">
+        <v>-0.05205819324124152</v>
+      </c>
+      <c r="I63">
+        <v>0.01365117423794681</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.063221868651984</v>
+        <v>0.03080661967499487</v>
       </c>
       <c r="C64">
-        <v>0.08142623117694579</v>
+        <v>0.1026071225702959</v>
       </c>
       <c r="D64">
-        <v>-0.04980221891975509</v>
+        <v>0.03739028202107501</v>
       </c>
       <c r="E64">
-        <v>0.01045356581510901</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03147165810555429</v>
+      </c>
+      <c r="F64">
+        <v>-0.02259458427787975</v>
+      </c>
+      <c r="G64">
+        <v>0.02708034204310999</v>
+      </c>
+      <c r="H64">
+        <v>-0.1140229324092229</v>
+      </c>
+      <c r="I64">
+        <v>-0.03210030945654057</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0277929176902913</v>
+        <v>0.02176186678354968</v>
       </c>
       <c r="C65">
-        <v>0.01647032248891536</v>
+        <v>0.03730536407435601</v>
       </c>
       <c r="D65">
-        <v>-0.1179521211984173</v>
+        <v>0.1061651741063507</v>
       </c>
       <c r="E65">
-        <v>0.003707981312267498</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.03797093218983743</v>
+      </c>
+      <c r="F65">
+        <v>-0.008531837188529078</v>
+      </c>
+      <c r="G65">
+        <v>-0.007510704433955091</v>
+      </c>
+      <c r="H65">
+        <v>-0.01269290759731592</v>
+      </c>
+      <c r="I65">
+        <v>0.01575450771791147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02657690543055979</v>
+        <v>0.0116811733613774</v>
       </c>
       <c r="C66">
-        <v>0.06351533679989145</v>
+        <v>0.08789534797842513</v>
       </c>
       <c r="D66">
-        <v>-0.1228407788318996</v>
+        <v>0.1340609292224476</v>
       </c>
       <c r="E66">
-        <v>-0.02025938829838851</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03446675599416361</v>
+      </c>
+      <c r="F66">
+        <v>0.01886132622098199</v>
+      </c>
+      <c r="G66">
+        <v>-0.01183575902442937</v>
+      </c>
+      <c r="H66">
+        <v>-0.05834719753067024</v>
+      </c>
+      <c r="I66">
+        <v>-0.05578937667442212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02773360611697122</v>
+        <v>0.02745052756964194</v>
       </c>
       <c r="C67">
-        <v>0.02415686953913073</v>
+        <v>0.03032801210709179</v>
       </c>
       <c r="D67">
-        <v>-0.04812821034191337</v>
+        <v>0.03822845638134366</v>
       </c>
       <c r="E67">
-        <v>0.009676364178709171</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0007383832512204478</v>
+      </c>
+      <c r="F67">
+        <v>0.03112967586121759</v>
+      </c>
+      <c r="G67">
+        <v>-0.02941807695364982</v>
+      </c>
+      <c r="H67">
+        <v>-0.05618349259967623</v>
+      </c>
+      <c r="I67">
+        <v>0.02142094665952383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2080498904013158</v>
+        <v>0.2645356590741808</v>
       </c>
       <c r="C68">
-        <v>-0.1673933734801296</v>
+        <v>-0.09115571274100556</v>
       </c>
       <c r="D68">
-        <v>-0.02949309002846304</v>
+        <v>0.02902905354920147</v>
       </c>
       <c r="E68">
-        <v>0.01285800539045336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.003093880586348605</v>
+      </c>
+      <c r="F68">
+        <v>-0.02371749326232493</v>
+      </c>
+      <c r="G68">
+        <v>-0.04939441075148169</v>
+      </c>
+      <c r="H68">
+        <v>0.04966547301242531</v>
+      </c>
+      <c r="I68">
+        <v>0.07829812682677768</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06270752636849794</v>
+        <v>0.02822403838722229</v>
       </c>
       <c r="C69">
-        <v>0.1141397283514625</v>
+        <v>0.1205817132077199</v>
       </c>
       <c r="D69">
-        <v>-0.08735032547852388</v>
+        <v>0.04459755916872353</v>
       </c>
       <c r="E69">
-        <v>0.01908189876539944</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.007112080703517487</v>
+      </c>
+      <c r="F69">
+        <v>0.008839069299851047</v>
+      </c>
+      <c r="G69">
+        <v>0.01185319141090464</v>
+      </c>
+      <c r="H69">
+        <v>-0.04253543940017967</v>
+      </c>
+      <c r="I69">
+        <v>0.07741271332105504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2112734435409019</v>
+        <v>0.2656733389205825</v>
       </c>
       <c r="C71">
-        <v>-0.1861604901317999</v>
+        <v>-0.1057434041855624</v>
       </c>
       <c r="D71">
-        <v>-0.02985775938396173</v>
+        <v>0.02332859558268002</v>
       </c>
       <c r="E71">
-        <v>0.02354740890590305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.008266932795421166</v>
+      </c>
+      <c r="F71">
+        <v>-0.02092060377862194</v>
+      </c>
+      <c r="G71">
+        <v>-0.05036492063718524</v>
+      </c>
+      <c r="H71">
+        <v>0.01461506834824391</v>
+      </c>
+      <c r="I71">
+        <v>0.1512650786887047</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1065871976816746</v>
+        <v>0.06615032290135865</v>
       </c>
       <c r="C72">
-        <v>0.07255694183134656</v>
+        <v>0.1193243952041097</v>
       </c>
       <c r="D72">
-        <v>-0.09425069367681338</v>
+        <v>0.06928586758531428</v>
       </c>
       <c r="E72">
-        <v>-0.04936561305821197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08763654366477482</v>
+      </c>
+      <c r="F72">
+        <v>0.01012075680994916</v>
+      </c>
+      <c r="G72">
+        <v>-0.008449553521842143</v>
+      </c>
+      <c r="H72">
+        <v>-0.05295401509507558</v>
+      </c>
+      <c r="I72">
+        <v>-0.0227964306737848</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1790843261630997</v>
+        <v>0.1421930937355271</v>
       </c>
       <c r="C73">
-        <v>0.04657676419691061</v>
+        <v>0.1239537505364762</v>
       </c>
       <c r="D73">
-        <v>-0.2172258997987928</v>
+        <v>0.09009222354765323</v>
       </c>
       <c r="E73">
-        <v>-0.4247084738304366</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.4329231796552157</v>
+      </c>
+      <c r="F73">
+        <v>0.2245883750899458</v>
+      </c>
+      <c r="G73">
+        <v>0.4362285266181408</v>
+      </c>
+      <c r="H73">
+        <v>0.03331669131762421</v>
+      </c>
+      <c r="I73">
+        <v>-0.01837043659274173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1057890722460935</v>
+        <v>0.06052095703224961</v>
       </c>
       <c r="C74">
-        <v>0.1086658339938609</v>
+        <v>0.136886325517711</v>
       </c>
       <c r="D74">
-        <v>0.02080584370277019</v>
+        <v>-0.03675733807729505</v>
       </c>
       <c r="E74">
-        <v>0.05286105043063913</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01839719156927966</v>
+      </c>
+      <c r="F74">
+        <v>-0.05156794775710538</v>
+      </c>
+      <c r="G74">
+        <v>-0.003840709350996635</v>
+      </c>
+      <c r="H74">
+        <v>0.01878003245551025</v>
+      </c>
+      <c r="I74">
+        <v>0.0913609501710885</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2413435583712814</v>
+        <v>0.1458304616860918</v>
       </c>
       <c r="C75">
-        <v>0.1934269696840941</v>
+        <v>0.2595237457579068</v>
       </c>
       <c r="D75">
-        <v>0.1072343742521693</v>
+        <v>-0.1323989986736253</v>
       </c>
       <c r="E75">
-        <v>0.01732398511961469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08068042297147161</v>
+      </c>
+      <c r="F75">
+        <v>0.03926379901293223</v>
+      </c>
+      <c r="G75">
+        <v>-0.06345329166233288</v>
+      </c>
+      <c r="H75">
+        <v>0.02585388575724615</v>
+      </c>
+      <c r="I75">
+        <v>0.05255853372453181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.144508907504529</v>
+        <v>0.08152904397224625</v>
       </c>
       <c r="C76">
-        <v>0.1374951142205589</v>
+        <v>0.1776748326150339</v>
       </c>
       <c r="D76">
-        <v>-0.01102308198017236</v>
+        <v>-0.02384488433275452</v>
       </c>
       <c r="E76">
-        <v>0.04205496224254645</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03488339364059505</v>
+      </c>
+      <c r="F76">
+        <v>-0.008719847251647787</v>
+      </c>
+      <c r="G76">
+        <v>-0.05714949231687292</v>
+      </c>
+      <c r="H76">
+        <v>-0.01068314272260932</v>
+      </c>
+      <c r="I76">
+        <v>0.08431281344187164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02620904783307013</v>
+        <v>0.03325863283199856</v>
       </c>
       <c r="C77">
-        <v>0.0850727466273887</v>
+        <v>0.09822625622856355</v>
       </c>
       <c r="D77">
-        <v>-0.06068188556530525</v>
+        <v>0.2443189731113488</v>
       </c>
       <c r="E77">
-        <v>0.3286175144265697</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7148184869921921</v>
+      </c>
+      <c r="F77">
+        <v>0.3589993225859076</v>
+      </c>
+      <c r="G77">
+        <v>0.3601303076152284</v>
+      </c>
+      <c r="H77">
+        <v>0.2146691322113471</v>
+      </c>
+      <c r="I77">
+        <v>0.12799444066939</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02579017405622559</v>
+        <v>0.01909458405971042</v>
       </c>
       <c r="C78">
-        <v>0.07033520560033087</v>
+        <v>0.08401016160359251</v>
       </c>
       <c r="D78">
-        <v>-0.1628538444797241</v>
+        <v>0.1425875355268323</v>
       </c>
       <c r="E78">
-        <v>0.02617194222251364</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04406236908434771</v>
+      </c>
+      <c r="F78">
+        <v>-0.03970110189458825</v>
+      </c>
+      <c r="G78">
+        <v>-0.01881298820630563</v>
+      </c>
+      <c r="H78">
+        <v>-0.02189538763323874</v>
+      </c>
+      <c r="I78">
+        <v>-0.006017906032920759</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.07810308961549495</v>
+        <v>0.04238650605448528</v>
       </c>
       <c r="C79">
-        <v>0.1468861468099491</v>
+        <v>0.1696442160076254</v>
       </c>
       <c r="D79">
-        <v>0.1015463744900992</v>
+        <v>-0.05567999261849041</v>
       </c>
       <c r="E79">
-        <v>0.5887080416893371</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.129681202419292</v>
+      </c>
+      <c r="F79">
+        <v>-0.8016457268755522</v>
+      </c>
+      <c r="G79">
+        <v>0.4400306077308539</v>
+      </c>
+      <c r="H79">
+        <v>0.07761466831115256</v>
+      </c>
+      <c r="I79">
+        <v>-0.1270912404229194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.008834137407801906</v>
+        <v>-0.0005269866261689066</v>
       </c>
       <c r="C80">
-        <v>0.04970003365196046</v>
+        <v>0.05241289000691974</v>
       </c>
       <c r="D80">
-        <v>-0.04681128947601541</v>
+        <v>0.04406298760098341</v>
       </c>
       <c r="E80">
-        <v>0.004605709147817238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.01892593194432263</v>
+      </c>
+      <c r="F80">
+        <v>-0.01591225970927204</v>
+      </c>
+      <c r="G80">
+        <v>-0.06695136422116114</v>
+      </c>
+      <c r="H80">
+        <v>-0.006658556193776865</v>
+      </c>
+      <c r="I80">
+        <v>0.03843746184409474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1212011116418791</v>
+        <v>0.06261228216534594</v>
       </c>
       <c r="C81">
-        <v>0.1361192299638321</v>
+        <v>0.1641513243096102</v>
       </c>
       <c r="D81">
-        <v>0.07116830192509341</v>
+        <v>-0.07968893591881136</v>
       </c>
       <c r="E81">
-        <v>0.09829123664875865</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.07488336138298723</v>
+      </c>
+      <c r="F81">
+        <v>-0.05067470075955663</v>
+      </c>
+      <c r="G81">
+        <v>-0.07790929994552177</v>
+      </c>
+      <c r="H81">
+        <v>-0.04153207228493998</v>
+      </c>
+      <c r="I81">
+        <v>0.1253773370806623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2477466482821996</v>
+        <v>0.1233518411311934</v>
       </c>
       <c r="C82">
-        <v>0.2942776908553336</v>
+        <v>0.3218029713003669</v>
       </c>
       <c r="D82">
-        <v>0.2165806743391098</v>
+        <v>-0.2277706331531093</v>
       </c>
       <c r="E82">
-        <v>-0.07700509994212194</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.03847261960851829</v>
+      </c>
+      <c r="F82">
+        <v>0.1132502284642771</v>
+      </c>
+      <c r="G82">
+        <v>-0.07572816738180357</v>
+      </c>
+      <c r="H82">
+        <v>-0.0621196429002011</v>
+      </c>
+      <c r="I82">
+        <v>0.06468543271852038</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.003241485433341349</v>
+        <v>-0.006224981851297883</v>
       </c>
       <c r="C83">
-        <v>0.05936113864877517</v>
+        <v>0.04406903184829348</v>
       </c>
       <c r="D83">
-        <v>-0.02864490992425676</v>
+        <v>0.04407340874826834</v>
       </c>
       <c r="E83">
-        <v>0.07726817908385453</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.1075749475817706</v>
+      </c>
+      <c r="F83">
+        <v>-0.003274834060670495</v>
+      </c>
+      <c r="G83">
+        <v>-0.05244333556565419</v>
+      </c>
+      <c r="H83">
+        <v>-0.07191190336394281</v>
+      </c>
+      <c r="I83">
+        <v>-0.01605483653091815</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0002147115539929233</v>
+        <v>0.0005756961839303009</v>
       </c>
       <c r="C84">
-        <v>0.0003392961115056233</v>
+        <v>0.01328277542837294</v>
       </c>
       <c r="D84">
-        <v>-0.0002446512821833721</v>
+        <v>0.03700832138600878</v>
       </c>
       <c r="E84">
-        <v>0.00034080992771423</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.006242426468977925</v>
+      </c>
+      <c r="F84">
+        <v>-0.0177748785653114</v>
+      </c>
+      <c r="G84">
+        <v>-0.03844850379289966</v>
+      </c>
+      <c r="H84">
+        <v>0.01312476765473377</v>
+      </c>
+      <c r="I84">
+        <v>-0.03291388650175159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1487139526356581</v>
+        <v>0.08136129620089957</v>
       </c>
       <c r="C85">
-        <v>0.1411487199821275</v>
+        <v>0.1860944642167608</v>
       </c>
       <c r="D85">
-        <v>0.04669655541921348</v>
+        <v>-0.08747542799303512</v>
       </c>
       <c r="E85">
-        <v>0.002951766867943677</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0002026382427086364</v>
+      </c>
+      <c r="F85">
+        <v>-0.07584839241361631</v>
+      </c>
+      <c r="G85">
+        <v>-0.02124721804917952</v>
+      </c>
+      <c r="H85">
+        <v>0.01002155502211475</v>
+      </c>
+      <c r="I85">
+        <v>0.08578357164601789</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01666211279989439</v>
+        <v>0.01332540611901701</v>
       </c>
       <c r="C86">
-        <v>0.02425998967058984</v>
+        <v>0.03227454131838373</v>
       </c>
       <c r="D86">
-        <v>-0.08519081938738791</v>
+        <v>0.1020010716553082</v>
       </c>
       <c r="E86">
-        <v>0.06871973793845974</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0455274137885426</v>
+      </c>
+      <c r="F86">
+        <v>0.01671466110821028</v>
+      </c>
+      <c r="G86">
+        <v>-0.0124084823438748</v>
+      </c>
+      <c r="H86">
+        <v>0.00143867360811607</v>
+      </c>
+      <c r="I86">
+        <v>0.1334397039482614</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0227112604718013</v>
+        <v>0.02130693699339079</v>
       </c>
       <c r="C87">
-        <v>0.02104150513162037</v>
+        <v>0.04783276839169126</v>
       </c>
       <c r="D87">
-        <v>-0.1233956727761922</v>
+        <v>0.1495398620989297</v>
       </c>
       <c r="E87">
-        <v>0.058250050689719</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01831093139401389</v>
+      </c>
+      <c r="F87">
+        <v>-0.03683485867131131</v>
+      </c>
+      <c r="G87">
+        <v>-0.06627025145782203</v>
+      </c>
+      <c r="H87">
+        <v>-0.02228693660807706</v>
+      </c>
+      <c r="I87">
+        <v>-0.08330364689839033</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05814564853559539</v>
+        <v>0.03759059406770322</v>
       </c>
       <c r="C88">
-        <v>0.04328329699190631</v>
+        <v>0.06293282825703959</v>
       </c>
       <c r="D88">
-        <v>-0.05183537002924751</v>
+        <v>0.01835665913314702</v>
       </c>
       <c r="E88">
-        <v>0.03187221269295717</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02072368930865479</v>
+      </c>
+      <c r="F88">
+        <v>-0.02854455991019594</v>
+      </c>
+      <c r="G88">
+        <v>0.007770339586817544</v>
+      </c>
+      <c r="H88">
+        <v>-0.02846575642911445</v>
+      </c>
+      <c r="I88">
+        <v>0.05465639770973729</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3129564047158584</v>
+        <v>0.3985180995463042</v>
       </c>
       <c r="C89">
-        <v>-0.3337905927311292</v>
+        <v>-0.1977563856433014</v>
       </c>
       <c r="D89">
-        <v>-0.0266264506335054</v>
+        <v>0.02868980231423886</v>
       </c>
       <c r="E89">
-        <v>0.1382890149602495</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05483958429602009</v>
+      </c>
+      <c r="F89">
+        <v>-0.05803725187513705</v>
+      </c>
+      <c r="G89">
+        <v>-0.1034793653500389</v>
+      </c>
+      <c r="H89">
+        <v>-0.1843012660510485</v>
+      </c>
+      <c r="I89">
+        <v>-0.2946887332102929</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2510298797901919</v>
+        <v>0.3114581260131451</v>
       </c>
       <c r="C90">
-        <v>-0.2484426190524802</v>
+        <v>-0.1359081906489772</v>
       </c>
       <c r="D90">
-        <v>-0.03108794969141397</v>
+        <v>0.03658474868133207</v>
       </c>
       <c r="E90">
-        <v>0.007813166702625435</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01159737702052232</v>
+      </c>
+      <c r="F90">
+        <v>0.0176972120623848</v>
+      </c>
+      <c r="G90">
+        <v>-0.0487059825724389</v>
+      </c>
+      <c r="H90">
+        <v>0.03313221068165433</v>
+      </c>
+      <c r="I90">
+        <v>0.05364178611039835</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1573711403397245</v>
+        <v>0.08467424452316126</v>
       </c>
       <c r="C91">
-        <v>0.1814011239923517</v>
+        <v>0.2062047239552186</v>
       </c>
       <c r="D91">
-        <v>0.1062158589536114</v>
+        <v>-0.1121789255031684</v>
       </c>
       <c r="E91">
-        <v>0.1130976007163617</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07729750033702612</v>
+      </c>
+      <c r="F91">
+        <v>-0.07760173473170544</v>
+      </c>
+      <c r="G91">
+        <v>-0.0227648539260298</v>
+      </c>
+      <c r="H91">
+        <v>0.01293400378655253</v>
+      </c>
+      <c r="I91">
+        <v>0.1221064849174726</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2260309686838905</v>
+        <v>0.3176915058141249</v>
       </c>
       <c r="C92">
-        <v>-0.2596861141088794</v>
+        <v>-0.1713804044095793</v>
       </c>
       <c r="D92">
-        <v>0.04314207013819487</v>
+        <v>-0.002126145798149543</v>
       </c>
       <c r="E92">
-        <v>0.06656852092255393</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.07587080319289631</v>
+      </c>
+      <c r="F92">
+        <v>-0.02394588523486115</v>
+      </c>
+      <c r="G92">
+        <v>-0.02105508336660374</v>
+      </c>
+      <c r="H92">
+        <v>-0.0008070272596045938</v>
+      </c>
+      <c r="I92">
+        <v>-0.09927241574703392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2741934165739973</v>
+        <v>0.3257581565198978</v>
       </c>
       <c r="C93">
-        <v>-0.2563196530689543</v>
+        <v>-0.1416114165154267</v>
       </c>
       <c r="D93">
-        <v>-0.0173035704598325</v>
+        <v>-0.008754088330646555</v>
       </c>
       <c r="E93">
-        <v>-0.003524680161596503</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.03685295292130152</v>
+      </c>
+      <c r="F93">
+        <v>-0.01408529390557703</v>
+      </c>
+      <c r="G93">
+        <v>0.02490058889693062</v>
+      </c>
+      <c r="H93">
+        <v>0.02454986576030711</v>
+      </c>
+      <c r="I93">
+        <v>0.1062441182561382</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3083046244047477</v>
+        <v>0.1765069644657999</v>
       </c>
       <c r="C94">
-        <v>0.2625004092088279</v>
+        <v>0.347290190395084</v>
       </c>
       <c r="D94">
-        <v>0.356264535657172</v>
+        <v>-0.3543642361842374</v>
       </c>
       <c r="E94">
-        <v>-0.145873261651575</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.04678154385838456</v>
+      </c>
+      <c r="F94">
+        <v>0.1124026652681297</v>
+      </c>
+      <c r="G94">
+        <v>-0.2703798391239636</v>
+      </c>
+      <c r="H94">
+        <v>0.1255307335485028</v>
+      </c>
+      <c r="I94">
+        <v>-0.4000477431269331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02869577297730232</v>
+        <v>0.02539085937970635</v>
       </c>
       <c r="C95">
-        <v>0.03723815888279246</v>
+        <v>0.06211031807239231</v>
       </c>
       <c r="D95">
-        <v>-0.08093388478909787</v>
+        <v>0.1141205418940212</v>
       </c>
       <c r="E95">
-        <v>0.191175865428996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.2151841241221162</v>
+      </c>
+      <c r="F95">
+        <v>0.1304826152499587</v>
+      </c>
+      <c r="G95">
+        <v>0.1398306199463298</v>
+      </c>
+      <c r="H95">
+        <v>-0.4628763334124801</v>
+      </c>
+      <c r="I95">
+        <v>-0.5323462535164082</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0008262801526435265</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-7.670440473018221e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.001059268207000649</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.0003814185545052055</v>
+      </c>
+      <c r="F97">
+        <v>0.001784617339773484</v>
+      </c>
+      <c r="G97">
+        <v>0.001080954594683874</v>
+      </c>
+      <c r="H97">
+        <v>-0.0003335206784572446</v>
+      </c>
+      <c r="I97">
+        <v>-0.0001274936540445572</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1545297710088222</v>
+        <v>0.1250827357368478</v>
       </c>
       <c r="C98">
-        <v>0.06858365084446351</v>
+        <v>0.1311603395052785</v>
       </c>
       <c r="D98">
-        <v>-0.126477359207152</v>
+        <v>0.06605552266493381</v>
       </c>
       <c r="E98">
-        <v>-0.2783484356628232</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2880646820769996</v>
+      </c>
+      <c r="F98">
+        <v>0.1477809575735447</v>
+      </c>
+      <c r="G98">
+        <v>0.2571141340747313</v>
+      </c>
+      <c r="H98">
+        <v>0.06927286650115015</v>
+      </c>
+      <c r="I98">
+        <v>-0.03160999555776904</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.0009381824766998981</v>
+        <v>0.000355976200722687</v>
       </c>
       <c r="C101">
-        <v>0.01992651549158421</v>
+        <v>0.02876255495112956</v>
       </c>
       <c r="D101">
-        <v>-0.1024370925352165</v>
+        <v>0.1017833567267682</v>
       </c>
       <c r="E101">
-        <v>0.02190809651649539</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03145693316416871</v>
+      </c>
+      <c r="F101">
+        <v>-0.03117356306089228</v>
+      </c>
+      <c r="G101">
+        <v>-0.04836003551892024</v>
+      </c>
+      <c r="H101">
+        <v>-0.1022607766216742</v>
+      </c>
+      <c r="I101">
+        <v>0.0334275408840188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1124011504665665</v>
+        <v>0.05069412125955029</v>
       </c>
       <c r="C102">
-        <v>0.150888087638448</v>
+        <v>0.1532395433137649</v>
       </c>
       <c r="D102">
-        <v>0.07290762755085153</v>
+        <v>-0.09259447735568073</v>
       </c>
       <c r="E102">
-        <v>-0.01968965244832943</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0285839339865221</v>
+      </c>
+      <c r="F102">
+        <v>0.06779012506055947</v>
+      </c>
+      <c r="G102">
+        <v>0.00355574415398262</v>
+      </c>
+      <c r="H102">
+        <v>-0.05259812538000082</v>
+      </c>
+      <c r="I102">
+        <v>0.01286395961919917</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
